--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-Thbd.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H2">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.32293066666667</v>
+        <v>41.60833666666667</v>
       </c>
       <c r="N2">
-        <v>132.968792</v>
+        <v>124.82501</v>
       </c>
       <c r="O2">
-        <v>0.6264651541551962</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="P2">
-        <v>0.6264651541551961</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="Q2">
-        <v>29.87536908931911</v>
+        <v>31.39436379007</v>
       </c>
       <c r="R2">
-        <v>268.878321803872</v>
+        <v>282.54927411063</v>
       </c>
       <c r="S2">
-        <v>0.1915930405692093</v>
+        <v>0.1629599663777623</v>
       </c>
       <c r="T2">
-        <v>0.1915930405692093</v>
+        <v>0.1629599663777623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H3">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>53.145803</v>
       </c>
       <c r="O3">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="P3">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="Q3">
-        <v>11.94077539768311</v>
+        <v>13.366541475121</v>
       </c>
       <c r="R3">
-        <v>107.466978579148</v>
+        <v>120.298873276089</v>
       </c>
       <c r="S3">
-        <v>0.0765771113440077</v>
+        <v>0.06938223573944981</v>
       </c>
       <c r="T3">
-        <v>0.07657711134400771</v>
+        <v>0.06938223573944981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H4">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.136894000000001</v>
+        <v>6.935318333333334</v>
       </c>
       <c r="N4">
-        <v>12.410682</v>
+        <v>20.805955</v>
       </c>
       <c r="O4">
-        <v>0.05847131266937523</v>
+        <v>0.09811549001908282</v>
       </c>
       <c r="P4">
-        <v>0.05847131266937522</v>
+        <v>0.09811549001908279</v>
       </c>
       <c r="Q4">
-        <v>2.788426515901334</v>
+        <v>5.232843324185001</v>
       </c>
       <c r="R4">
-        <v>25.095838643112</v>
+        <v>47.095589917665</v>
       </c>
       <c r="S4">
-        <v>0.01788239378693878</v>
+        <v>0.02716232690273557</v>
       </c>
       <c r="T4">
-        <v>0.01788239378693878</v>
+        <v>0.02716232690273556</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H5">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I5">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J5">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.575739333333334</v>
+        <v>4.426331333333334</v>
       </c>
       <c r="N5">
-        <v>13.727218</v>
+        <v>13.278994</v>
       </c>
       <c r="O5">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154843</v>
       </c>
       <c r="P5">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154841</v>
       </c>
       <c r="Q5">
-        <v>3.084225239254223</v>
+        <v>3.339759943958</v>
       </c>
       <c r="R5">
-        <v>27.758027153288</v>
+        <v>30.057839495622</v>
       </c>
       <c r="S5">
-        <v>0.01977937375844084</v>
+        <v>0.01733582409302838</v>
       </c>
       <c r="T5">
-        <v>0.01977937375844085</v>
+        <v>0.01733582409302837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H6">
         <v>2.919578</v>
       </c>
       <c r="I6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.32293066666667</v>
+        <v>41.60833666666667</v>
       </c>
       <c r="N6">
-        <v>132.968792</v>
+        <v>124.82501</v>
       </c>
       <c r="O6">
-        <v>0.6264651541551962</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="P6">
-        <v>0.6264651541551961</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="Q6">
-        <v>43.13475108997513</v>
+        <v>40.49292811619778</v>
       </c>
       <c r="R6">
-        <v>388.2127598097761</v>
+        <v>364.43635304578</v>
       </c>
       <c r="S6">
-        <v>0.276626477511167</v>
+        <v>0.2101882442491128</v>
       </c>
       <c r="T6">
-        <v>0.276626477511167</v>
+        <v>0.2101882442491128</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H7">
         <v>2.919578</v>
       </c>
       <c r="I7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>53.145803</v>
       </c>
       <c r="O7">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="P7">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="Q7">
         <v>17.24036858123711</v>
@@ -883,10 +883,10 @@
         <v>155.163317231134</v>
       </c>
       <c r="S7">
-        <v>0.1105638101788005</v>
+        <v>0.08949026338375003</v>
       </c>
       <c r="T7">
-        <v>0.1105638101788005</v>
+        <v>0.08949026338375003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H8">
         <v>2.919578</v>
       </c>
       <c r="I8">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J8">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.136894000000001</v>
+        <v>6.935318333333334</v>
       </c>
       <c r="N8">
-        <v>12.410682</v>
+        <v>20.805955</v>
       </c>
       <c r="O8">
-        <v>0.05847131266937523</v>
+        <v>0.09811549001908282</v>
       </c>
       <c r="P8">
-        <v>0.05847131266937522</v>
+        <v>0.09811549001908279</v>
       </c>
       <c r="Q8">
-        <v>4.025994903577335</v>
+        <v>6.74940094299889</v>
       </c>
       <c r="R8">
-        <v>36.23395413219601</v>
+        <v>60.74460848699</v>
       </c>
       <c r="S8">
-        <v>0.02581901507514068</v>
+        <v>0.03503438254381915</v>
       </c>
       <c r="T8">
-        <v>0.02581901507514068</v>
+        <v>0.03503438254381914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H9">
         <v>2.919578</v>
       </c>
       <c r="I9">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J9">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.575739333333334</v>
+        <v>4.426331333333334</v>
       </c>
       <c r="N9">
-        <v>13.727218</v>
+        <v>13.278994</v>
       </c>
       <c r="O9">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154843</v>
       </c>
       <c r="P9">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154841</v>
       </c>
       <c r="Q9">
-        <v>4.453075963778224</v>
+        <v>4.307673193836889</v>
       </c>
       <c r="R9">
-        <v>40.07768367400401</v>
+        <v>38.769058744532</v>
       </c>
       <c r="S9">
-        <v>0.02855791877366146</v>
+        <v>0.0223600096988136</v>
       </c>
       <c r="T9">
-        <v>0.02855791877366147</v>
+        <v>0.02236000969881359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H10">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.32293066666667</v>
+        <v>41.60833666666667</v>
       </c>
       <c r="N10">
-        <v>132.968792</v>
+        <v>124.82501</v>
       </c>
       <c r="O10">
-        <v>0.6264651541551962</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="P10">
-        <v>0.6264651541551961</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="Q10">
-        <v>22.521589145</v>
+        <v>32.55606854980334</v>
       </c>
       <c r="R10">
-        <v>202.694302305</v>
+        <v>293.00461694823</v>
       </c>
       <c r="S10">
-        <v>0.1444326839892906</v>
+        <v>0.1689900732419412</v>
       </c>
       <c r="T10">
-        <v>0.1444326839892906</v>
+        <v>0.1689900732419412</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H11">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I11">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J11">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>53.145803</v>
       </c>
       <c r="O11">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="P11">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="Q11">
-        <v>9.001570383125001</v>
+        <v>13.86115174837433</v>
       </c>
       <c r="R11">
-        <v>81.01413344812501</v>
+        <v>124.750365735369</v>
       </c>
       <c r="S11">
-        <v>0.05772776344434333</v>
+        <v>0.07194962885620261</v>
       </c>
       <c r="T11">
-        <v>0.05772776344434333</v>
+        <v>0.07194962885620262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H12">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I12">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J12">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.136894000000001</v>
+        <v>6.935318333333334</v>
       </c>
       <c r="N12">
-        <v>12.410682</v>
+        <v>20.805955</v>
       </c>
       <c r="O12">
-        <v>0.05847131266937523</v>
+        <v>0.09811549001908282</v>
       </c>
       <c r="P12">
-        <v>0.05847131266937522</v>
+        <v>0.09811549001908279</v>
       </c>
       <c r="Q12">
-        <v>2.102059263750001</v>
+        <v>5.426477412051668</v>
       </c>
       <c r="R12">
-        <v>18.91853337375</v>
+        <v>48.83829670846501</v>
       </c>
       <c r="S12">
-        <v>0.01348066779005992</v>
+        <v>0.02816743102458821</v>
       </c>
       <c r="T12">
-        <v>0.01348066779005992</v>
+        <v>0.02816743102458821</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H13">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I13">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J13">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.575739333333334</v>
+        <v>4.426331333333334</v>
       </c>
       <c r="N13">
-        <v>13.727218</v>
+        <v>13.278994</v>
       </c>
       <c r="O13">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154843</v>
       </c>
       <c r="P13">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154841</v>
       </c>
       <c r="Q13">
-        <v>2.325047548750001</v>
+        <v>3.463343114784667</v>
       </c>
       <c r="R13">
-        <v>20.92542793875</v>
+        <v>31.170088033062</v>
       </c>
       <c r="S13">
-        <v>0.01491070881839779</v>
+        <v>0.01797731214793653</v>
       </c>
       <c r="T13">
-        <v>0.01491070881839779</v>
+        <v>0.01797731214793653</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H14">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I14">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J14">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.32293066666667</v>
+        <v>41.60833666666667</v>
       </c>
       <c r="N14">
-        <v>132.968792</v>
+        <v>124.82501</v>
       </c>
       <c r="O14">
-        <v>0.6264651541551962</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="P14">
-        <v>0.6264651541551961</v>
+        <v>0.5886423873735626</v>
       </c>
       <c r="Q14">
-        <v>2.153872815746667</v>
+        <v>8.959051573284444</v>
       </c>
       <c r="R14">
-        <v>19.38485534172</v>
+        <v>80.63146415956</v>
       </c>
       <c r="S14">
-        <v>0.0138129520855293</v>
+        <v>0.04650410350474621</v>
       </c>
       <c r="T14">
-        <v>0.0138129520855293</v>
+        <v>0.04650410350474621</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H15">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I15">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J15">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>53.145803</v>
       </c>
       <c r="O15">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="P15">
-        <v>0.2503895325235164</v>
+        <v>0.2506218293658061</v>
       </c>
       <c r="Q15">
-        <v>0.8608734322616666</v>
+        <v>3.814427813629778</v>
       </c>
       <c r="R15">
-        <v>7.747860890355</v>
+        <v>34.329850322668</v>
       </c>
       <c r="S15">
-        <v>0.005520847556364799</v>
+        <v>0.01979970138640367</v>
       </c>
       <c r="T15">
-        <v>0.0055208475563648</v>
+        <v>0.01979970138640367</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H16">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I16">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J16">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.136894000000001</v>
+        <v>6.935318333333334</v>
       </c>
       <c r="N16">
-        <v>12.410682</v>
+        <v>20.805955</v>
       </c>
       <c r="O16">
-        <v>0.05847131266937523</v>
+        <v>0.09811549001908282</v>
       </c>
       <c r="P16">
-        <v>0.05847131266937522</v>
+        <v>0.09811549001908279</v>
       </c>
       <c r="Q16">
-        <v>0.20103236393</v>
+        <v>1.493303496442222</v>
       </c>
       <c r="R16">
-        <v>1.80929127537</v>
+        <v>13.43973146798</v>
       </c>
       <c r="S16">
-        <v>0.001289236017235841</v>
+        <v>0.007751349547939888</v>
       </c>
       <c r="T16">
-        <v>0.001289236017235841</v>
+        <v>0.007751349547939886</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H17">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I17">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J17">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.575739333333334</v>
+        <v>4.426331333333334</v>
       </c>
       <c r="N17">
-        <v>13.727218</v>
+        <v>13.278994</v>
       </c>
       <c r="O17">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154843</v>
       </c>
       <c r="P17">
-        <v>0.06467400065191224</v>
+        <v>0.06262029324154841</v>
       </c>
       <c r="Q17">
-        <v>0.2223580529033334</v>
+        <v>0.9530717609182222</v>
       </c>
       <c r="R17">
-        <v>2.00122247613</v>
+        <v>8.577645848264</v>
       </c>
       <c r="S17">
-        <v>0.001425999301412134</v>
+        <v>0.004947147301769926</v>
       </c>
       <c r="T17">
-        <v>0.001425999301412134</v>
+        <v>0.004947147301769925</v>
       </c>
     </row>
   </sheetData>
